--- a/data/n2v/tables/model-1-1325-20230829-41.xlsx
+++ b/data/n2v/tables/model-1-1325-20230829-41.xlsx
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
